--- a/output/table3/Table3_Pre-ZLB_daily_volume.xlsx
+++ b/output/table3/Table3_Pre-ZLB_daily_volume.xlsx
@@ -2385,94 +2385,94 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>282490.4845360825</v>
+        <v>652988.1935483871</v>
       </c>
       <c r="E26" t="n">
-        <v>712047.2807576158</v>
+        <v>994250.7539854796</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>423523</v>
       </c>
       <c r="H26" t="n">
-        <v>16263</v>
+        <v>977114</v>
       </c>
       <c r="I26" t="n">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="J26" t="n">
-        <v>572141.0306122449</v>
+        <v>704264.3870967742</v>
       </c>
       <c r="K26" t="n">
-        <v>928547.9521576439</v>
+        <v>1053785.140530006</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>373513</v>
       </c>
       <c r="N26" t="n">
-        <v>656812.25</v>
+        <v>966806.5</v>
       </c>
       <c r="O26" t="n">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="P26" t="n">
-        <v>716687.9795918367</v>
+        <v>857977.2580645161</v>
       </c>
       <c r="Q26" t="n">
-        <v>1075996.027516687</v>
+        <v>1218611.033344656</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>581141</v>
       </c>
       <c r="T26" t="n">
-        <v>962278.75</v>
+        <v>1181526</v>
       </c>
       <c r="U26" t="n">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="V26" t="n">
-        <v>708391.6288659794</v>
+        <v>892981.1935483871</v>
       </c>
       <c r="W26" t="n">
-        <v>1043365.728849152</v>
+        <v>1153712.529117181</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>548457</v>
       </c>
       <c r="Z26" t="n">
-        <v>978919</v>
+        <v>1278850.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="AB26" t="n">
-        <v>669409.5806451613</v>
+        <v>839033.6129032258</v>
       </c>
       <c r="AC26" t="n">
-        <v>1076777.171337876</v>
+        <v>1255112.814201568</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
       </c>
       <c r="AE26" t="n">
-        <v>0</v>
+        <v>453080</v>
       </c>
       <c r="AF26" t="n">
-        <v>989412</v>
+        <v>1185704</v>
       </c>
       <c r="AG26" t="n">
-        <v>93</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27">
@@ -2492,7 +2492,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>441586.030927835</v>
+        <v>204989.064516129</v>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
@@ -2500,7 +2500,7 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
-        <v>144546.9489795918</v>
+        <v>153712.8709677419</v>
       </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
@@ -2516,7 +2516,7 @@
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="n">
-        <v>-17754.61855670103</v>
+        <v>-35003.93548387097</v>
       </c>
       <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
@@ -2524,7 +2524,7 @@
       <c r="Z27" t="inlineStr"/>
       <c r="AA27" t="inlineStr"/>
       <c r="AB27" t="n">
-        <v>49761.72043010753</v>
+        <v>18943.64516129032</v>
       </c>
       <c r="AC27" t="inlineStr"/>
       <c r="AD27" t="inlineStr"/>
@@ -2549,7 +2549,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
@@ -2557,7 +2557,7 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
@@ -2565,7 +2565,7 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="n">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr"/>
@@ -2573,7 +2573,7 @@
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="n">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>
@@ -2581,7 +2581,7 @@
       <c r="Z28" t="inlineStr"/>
       <c r="AA28" t="inlineStr"/>
       <c r="AB28" t="n">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="AC28" t="inlineStr"/>
       <c r="AD28" t="inlineStr"/>

--- a/output/table3/Table3_Pre-ZLB_daily_volume.xlsx
+++ b/output/table3/Table3_Pre-ZLB_daily_volume.xlsx
@@ -2385,94 +2385,94 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>652988.1935483871</v>
+        <v>467865.686746988</v>
       </c>
       <c r="E26" t="n">
-        <v>994250.7539854796</v>
+        <v>678248.848442145</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>423523</v>
+        <v>5323</v>
       </c>
       <c r="H26" t="n">
-        <v>977114</v>
+        <v>727485.5</v>
       </c>
       <c r="I26" t="n">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="J26" t="n">
-        <v>704264.3870967742</v>
+        <v>661285.2530120482</v>
       </c>
       <c r="K26" t="n">
-        <v>1053785.140530006</v>
+        <v>861433.7148268499</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>373513</v>
+        <v>519761</v>
       </c>
       <c r="N26" t="n">
-        <v>966806.5</v>
+        <v>1044893</v>
       </c>
       <c r="O26" t="n">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="P26" t="n">
-        <v>857977.2580645161</v>
+        <v>627804.7951807228</v>
       </c>
       <c r="Q26" t="n">
-        <v>1218611.033344656</v>
+        <v>774264.2255404798</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>581141</v>
+        <v>553930</v>
       </c>
       <c r="T26" t="n">
-        <v>1181526</v>
+        <v>1030945.5</v>
       </c>
       <c r="U26" t="n">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="V26" t="n">
-        <v>892981.1935483871</v>
+        <v>562209.4939759036</v>
       </c>
       <c r="W26" t="n">
-        <v>1153712.529117181</v>
+        <v>780689.979638749</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>548457</v>
+        <v>15134</v>
       </c>
       <c r="Z26" t="n">
-        <v>1278850.5</v>
+        <v>941555</v>
       </c>
       <c r="AA26" t="n">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="AB26" t="n">
-        <v>839033.6129032258</v>
+        <v>535375.1445783132</v>
       </c>
       <c r="AC26" t="n">
-        <v>1255112.814201568</v>
+        <v>703681.3614342463</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
       </c>
       <c r="AE26" t="n">
-        <v>453080</v>
+        <v>169572</v>
       </c>
       <c r="AF26" t="n">
-        <v>1185704</v>
+        <v>838115</v>
       </c>
       <c r="AG26" t="n">
-        <v>31</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27">
@@ -2492,7 +2492,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>204989.064516129</v>
+        <v>159939.1084337349</v>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
@@ -2500,7 +2500,7 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
-        <v>153712.8709677419</v>
+        <v>-33480.4578313253</v>
       </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
@@ -2516,7 +2516,7 @@
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="n">
-        <v>-35003.93548387097</v>
+        <v>65595.30120481928</v>
       </c>
       <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
@@ -2524,7 +2524,7 @@
       <c r="Z27" t="inlineStr"/>
       <c r="AA27" t="inlineStr"/>
       <c r="AB27" t="n">
-        <v>18943.64516129032</v>
+        <v>92429.65060240965</v>
       </c>
       <c r="AC27" t="inlineStr"/>
       <c r="AD27" t="inlineStr"/>
@@ -2549,7 +2549,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
@@ -2557,7 +2557,7 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
@@ -2565,7 +2565,7 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="n">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr"/>
@@ -2573,7 +2573,7 @@
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="n">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>
@@ -2581,7 +2581,7 @@
       <c r="Z28" t="inlineStr"/>
       <c r="AA28" t="inlineStr"/>
       <c r="AB28" t="n">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="AC28" t="inlineStr"/>
       <c r="AD28" t="inlineStr"/>
